--- a/biology/Botanique/Château_des_Correaux/Château_des_Correaux.xlsx
+++ b/biology/Botanique/Château_des_Correaux/Château_des_Correaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Correaux</t>
+          <t>Château_des_Correaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château des Correaux est situé sur la commune de Leynes, en Saône-et-Loire (France) est une demeure de style Mâconnais du XVIIIe siècle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Correaux</t>
+          <t>Château_des_Correaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Bernard, implantée à Leynes depuis 1803, exploite l'entreprise viticole présente sur le domaine. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Correaux</t>
+          <t>Château_des_Correaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château des Correaux mêle l'architecture classique au style de la Bourgogne du Sud. Une large galerie mâconnaise typique traverse de part en part le château.
 Son balcon porte le blason du château : "d'azur à trois fasces d'or".
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Correaux</t>
+          <t>Château_des_Correaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Porche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le porche du XVe siècle est caractéristique du sud Mâconnais par son appareillage de pierres, sa charpente et le passage à porte.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Correaux</t>
+          <t>Château_des_Correaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Parc</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc centenaire comporte une grande variété d'essences: ginkgo biloba, orme pleureur, cèdre du Liban, séquoia, noyer d'Amérique, tilleul double, hêtre pourpre et autres variétés plus habituelles de la région.
 </t>
